--- a/xlsx/country_comparison/list_exp_mean.xlsx
+++ b/xlsx/country_comparison/list_exp_mean.xlsx
@@ -32,16 +32,16 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">List exp.: G/C/O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List exp.: R/G/C/O</t>
+    <t xml:space="preserve">List exp.: NR/GCS/C/O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List exp.: NR/C/O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List exp.: GCS/C/O</t>
   </si>
   <si>
     <t xml:space="preserve">List exp.: C/O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List exp.: R/C/O</t>
   </si>
 </sst>
 </file>
@@ -397,16 +397,20 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="n">
+        <v>3.28571428571429</v>
+      </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2.41304347826087</v>
       </c>
       <c r="D2" t="n">
-        <v>1.66666666666667</v>
-      </c>
-      <c r="E2"/>
+        <v>2.48484848484848</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.05882352941176</v>
+      </c>
       <c r="F2" t="n">
-        <v>1.37037037037037</v>
+        <v>1.97791798107256</v>
       </c>
     </row>
     <row r="3">
@@ -414,19 +418,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1.94444444444444</v>
+        <v>2.1219512195122</v>
       </c>
       <c r="C3" t="n">
-        <v>2.5</v>
+        <v>1.53333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>3.22222222222222</v>
+        <v>2.11428571428571</v>
       </c>
       <c r="E3" t="n">
-        <v>2.83333333333333</v>
+        <v>1.44444444444444</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8974358974359</v>
+        <v>1.3861852433281</v>
       </c>
     </row>
     <row r="4">
@@ -434,19 +438,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>1.5</v>
+        <v>1.66666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>1.78048780487805</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>1.90625</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0625</v>
+        <v>2.125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.911111111111111</v>
+        <v>1.40556368960469</v>
       </c>
     </row>
     <row r="5">
@@ -454,19 +458,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>1.94594594594595</v>
+        <v>1.27027027027027</v>
       </c>
       <c r="C5" t="n">
-        <v>1.83333333333333</v>
+        <v>0.938775510204082</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>1.13636363636364</v>
       </c>
       <c r="E5" t="n">
-        <v>1.55882352941176</v>
+        <v>1.16666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>1.42622950819672</v>
+        <v>0.897777777777778</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/list_exp_mean.xlsx
+++ b/xlsx/country_comparison/list_exp_mean.xlsx
@@ -398,16 +398,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>3.28571428571429</v>
+        <v>2.82352941176471</v>
       </c>
       <c r="C2" t="n">
-        <v>2.41304347826087</v>
+        <v>2.13612565445026</v>
       </c>
       <c r="D2" t="n">
-        <v>2.48484848484848</v>
+        <v>2.67361111111111</v>
       </c>
       <c r="E2" t="n">
-        <v>2.05882352941176</v>
+        <v>2.585</v>
       </c>
       <c r="F2" t="n">
         <v>1.97791798107256</v>
@@ -418,19 +418,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>2.1219512195122</v>
+        <v>2.06081081081081</v>
       </c>
       <c r="C3" t="n">
-        <v>1.53333333333333</v>
+        <v>1.58415841584158</v>
       </c>
       <c r="D3" t="n">
-        <v>2.11428571428571</v>
+        <v>1.94074074074074</v>
       </c>
       <c r="E3" t="n">
-        <v>1.44444444444444</v>
+        <v>2.02702702702703</v>
       </c>
       <c r="F3" t="n">
-        <v>1.3861852433281</v>
+        <v>1.38845553822153</v>
       </c>
     </row>
     <row r="4">
@@ -438,19 +438,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>1.66666666666667</v>
+        <v>2.05142857142857</v>
       </c>
       <c r="C4" t="n">
-        <v>1.78048780487805</v>
+        <v>1.71929824561404</v>
       </c>
       <c r="D4" t="n">
-        <v>1.90625</v>
+        <v>1.97857142857143</v>
       </c>
       <c r="E4" t="n">
-        <v>2.125</v>
+        <v>1.82706766917293</v>
       </c>
       <c r="F4" t="n">
-        <v>1.40556368960469</v>
+        <v>1.40233236151604</v>
       </c>
     </row>
     <row r="5">
@@ -458,19 +458,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>1.27027027027027</v>
+        <v>1.31055900621118</v>
       </c>
       <c r="C5" t="n">
-        <v>0.938775510204082</v>
+        <v>0.927461139896373</v>
       </c>
       <c r="D5" t="n">
-        <v>1.13636363636364</v>
+        <v>1.04838709677419</v>
       </c>
       <c r="E5" t="n">
-        <v>1.16666666666667</v>
+        <v>1.31901840490798</v>
       </c>
       <c r="F5" t="n">
-        <v>0.897777777777778</v>
+        <v>0.894428152492669</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/list_exp_mean.xlsx
+++ b/xlsx/country_comparison/list_exp_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">List exp.: NR/GCS/C/O</t>
@@ -392,85 +395,100 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.82352941176471</v>
+        <v>1.94644049816985</v>
       </c>
       <c r="C2" t="n">
-        <v>2.13612565445026</v>
+        <v>2.50816238653133</v>
       </c>
       <c r="D2" t="n">
-        <v>2.67361111111111</v>
+        <v>2.84964749999463</v>
       </c>
       <c r="E2" t="n">
-        <v>2.585</v>
+        <v>2.17189070766575</v>
       </c>
       <c r="F2" t="n">
-        <v>1.97791798107256</v>
+        <v>2.65349857779418</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.54511619433505</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>2.06081081081081</v>
+        <v>1.38803341940168</v>
       </c>
       <c r="C3" t="n">
-        <v>1.58415841584158</v>
+        <v>1.86924830234024</v>
       </c>
       <c r="D3" t="n">
-        <v>1.94074074074074</v>
+        <v>2.1200712761598</v>
       </c>
       <c r="E3" t="n">
-        <v>2.02702702702703</v>
+        <v>1.58754921047958</v>
       </c>
       <c r="F3" t="n">
-        <v>1.38845553822153</v>
+        <v>1.98376881751377</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.02818921427329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>2.05142857142857</v>
+        <v>1.37327033656644</v>
       </c>
       <c r="C4" t="n">
-        <v>1.71929824561404</v>
+        <v>1.86658204791956</v>
       </c>
       <c r="D4" t="n">
-        <v>1.97857142857143</v>
+        <v>2.09770293578465</v>
       </c>
       <c r="E4" t="n">
-        <v>1.82706766917293</v>
+        <v>1.67618954881123</v>
       </c>
       <c r="F4" t="n">
-        <v>1.40233236151604</v>
+        <v>1.93814526325481</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.80311644736289</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>1.31055900621118</v>
+        <v>0.894101176998223</v>
       </c>
       <c r="C5" t="n">
-        <v>0.927461139896373</v>
+        <v>1.12087707243309</v>
       </c>
       <c r="D5" t="n">
-        <v>1.04838709677419</v>
+        <v>1.30826486099665</v>
       </c>
       <c r="E5" t="n">
-        <v>1.31901840490798</v>
+        <v>0.91535147961341</v>
       </c>
       <c r="F5" t="n">
-        <v>0.894428152492669</v>
+        <v>1.02003699506311</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.26617872095881</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/list_exp_mean.xlsx
+++ b/xlsx/country_comparison/list_exp_mean.xlsx
@@ -404,22 +404,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.94644049816985</v>
+        <v>1.95558318261956</v>
       </c>
       <c r="C2" t="n">
-        <v>2.50816238653133</v>
+        <v>2.5284356490243</v>
       </c>
       <c r="D2" t="n">
-        <v>2.84964749999463</v>
+        <v>2.79010524652734</v>
       </c>
       <c r="E2" t="n">
-        <v>2.17189070766575</v>
+        <v>2.17870672801421</v>
       </c>
       <c r="F2" t="n">
-        <v>2.65349857779418</v>
+        <v>2.6480851049622</v>
       </c>
       <c r="G2" t="n">
-        <v>2.54511619433505</v>
+        <v>2.58653618364989</v>
       </c>
     </row>
     <row r="3">
@@ -427,22 +427,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.38803341940168</v>
+        <v>1.40131057303385</v>
       </c>
       <c r="C3" t="n">
-        <v>1.86924830234024</v>
+        <v>1.85023727891036</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1200712761598</v>
+        <v>2.07891788744019</v>
       </c>
       <c r="E3" t="n">
-        <v>1.58754921047958</v>
+        <v>1.6323886096897</v>
       </c>
       <c r="F3" t="n">
-        <v>1.98376881751377</v>
+        <v>2.00087613891483</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02818921427329</v>
+        <v>1.92594356465094</v>
       </c>
     </row>
     <row r="4">
@@ -450,22 +450,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1.37327033656644</v>
+        <v>1.40078830573289</v>
       </c>
       <c r="C4" t="n">
-        <v>1.86658204791956</v>
+        <v>1.8732685000821</v>
       </c>
       <c r="D4" t="n">
-        <v>2.09770293578465</v>
+        <v>2.0710449790122</v>
       </c>
       <c r="E4" t="n">
-        <v>1.67618954881123</v>
+        <v>1.70746306149769</v>
       </c>
       <c r="F4" t="n">
-        <v>1.93814526325481</v>
+        <v>1.91096191551535</v>
       </c>
       <c r="G4" t="n">
-        <v>1.80311644736289</v>
+        <v>1.8396022103003</v>
       </c>
     </row>
     <row r="5">
@@ -473,22 +473,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.894101176998223</v>
+        <v>0.911042348379233</v>
       </c>
       <c r="C5" t="n">
-        <v>1.12087707243309</v>
+        <v>1.10777914245972</v>
       </c>
       <c r="D5" t="n">
-        <v>1.30826486099665</v>
+        <v>1.29312141544735</v>
       </c>
       <c r="E5" t="n">
-        <v>0.91535147961341</v>
+        <v>0.931576973845346</v>
       </c>
       <c r="F5" t="n">
-        <v>1.02003699506311</v>
+        <v>1.00753078181997</v>
       </c>
       <c r="G5" t="n">
-        <v>1.26617872095881</v>
+        <v>1.25457457822998</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/list_exp_mean.xlsx
+++ b/xlsx/country_comparison/list_exp_mean.xlsx
@@ -404,22 +404,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.95558318261956</v>
+        <v>1.95572072394667</v>
       </c>
       <c r="C2" t="n">
-        <v>2.5284356490243</v>
+        <v>2.52780478947738</v>
       </c>
       <c r="D2" t="n">
-        <v>2.79010524652734</v>
+        <v>2.78980832908363</v>
       </c>
       <c r="E2" t="n">
-        <v>2.17870672801421</v>
+        <v>2.17878283022247</v>
       </c>
       <c r="F2" t="n">
-        <v>2.6480851049622</v>
+        <v>2.66429365853611</v>
       </c>
       <c r="G2" t="n">
-        <v>2.58653618364989</v>
+        <v>2.58649963757343</v>
       </c>
     </row>
     <row r="3">
@@ -427,22 +427,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.40131057303385</v>
+        <v>1.40117746977089</v>
       </c>
       <c r="C3" t="n">
-        <v>1.85023727891036</v>
+        <v>1.85219004920533</v>
       </c>
       <c r="D3" t="n">
-        <v>2.07891788744019</v>
+        <v>2.07905099352898</v>
       </c>
       <c r="E3" t="n">
-        <v>1.6323886096897</v>
+        <v>1.63238774908649</v>
       </c>
       <c r="F3" t="n">
-        <v>2.00087613891483</v>
+        <v>1.99676754389218</v>
       </c>
       <c r="G3" t="n">
-        <v>1.92594356465094</v>
+        <v>1.92594993505939</v>
       </c>
     </row>
     <row r="4">
@@ -450,22 +450,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1.40078830573289</v>
+        <v>1.40098726783718</v>
       </c>
       <c r="C4" t="n">
-        <v>1.8732685000821</v>
+        <v>1.87398941103836</v>
       </c>
       <c r="D4" t="n">
-        <v>2.0710449790122</v>
+        <v>2.0708280327613</v>
       </c>
       <c r="E4" t="n">
-        <v>1.70746306149769</v>
+        <v>1.70749447477815</v>
       </c>
       <c r="F4" t="n">
-        <v>1.91096191551535</v>
+        <v>1.92760940318959</v>
       </c>
       <c r="G4" t="n">
-        <v>1.8396022103003</v>
+        <v>1.83955709804286</v>
       </c>
     </row>
     <row r="5">
@@ -473,22 +473,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.911042348379233</v>
+        <v>0.910926213838564</v>
       </c>
       <c r="C5" t="n">
-        <v>1.10777914245972</v>
+        <v>1.11363712713086</v>
       </c>
       <c r="D5" t="n">
-        <v>1.29312141544735</v>
+        <v>1.29297415821355</v>
       </c>
       <c r="E5" t="n">
-        <v>0.931576973845346</v>
+        <v>0.931581478142742</v>
       </c>
       <c r="F5" t="n">
-        <v>1.00753078181997</v>
+        <v>1.08083416372115</v>
       </c>
       <c r="G5" t="n">
-        <v>1.25457457822998</v>
+        <v>1.25453452227073</v>
       </c>
     </row>
   </sheetData>
